--- a/08_UK_Data/02_Output/tri_segments_4C_summary_UK.xlsx
+++ b/08_UK_Data/02_Output/tri_segments_4C_summary_UK.xlsx
@@ -406,25 +406,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>0.13</v>
       </c>
       <c r="D2">
-        <v>6.12</v>
+        <v>6.06</v>
       </c>
       <c r="E2">
-        <v>5.21</v>
+        <v>5.34</v>
       </c>
       <c r="F2">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="G2">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="H2">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="D3">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="E3">
-        <v>4.93</v>
+        <v>4.84</v>
       </c>
       <c r="F3">
         <v>3.03</v>
       </c>
       <c r="G3">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="H3">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         </is>
       </c>
       <c r="B4">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="C4">
         <v>0.4</v>
       </c>
       <c r="D4">
-        <v>4.66</v>
+        <v>4.62</v>
       </c>
       <c r="E4">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="F4">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="G4">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="H4">
-        <v>4.06</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="5">
@@ -490,25 +490,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C5">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D5">
-        <v>3.76</v>
+        <v>3.8</v>
       </c>
       <c r="E5">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="F5">
-        <v>4.7</v>
+        <v>4.76</v>
       </c>
       <c r="G5">
         <v>4.69</v>
       </c>
       <c r="H5">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
     </row>
   </sheetData>
